--- a/StructureDefinition-Organization-HPA.xlsx
+++ b/StructureDefinition-Organization-HPA.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://etatunghpa.com/StructureDefinition/Organization-HPA</t>
+    <t>https://twhpa.tsti.com/StructureDefinition/Organization-HPA</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
